--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2058088.793340667</v>
+        <v>2133618.463005471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>100.8330673628372</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>329.6586928752346</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>33.84234274505293</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>308.9734542191751</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>165.8123474728897</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.6100941567957</v>
+        <v>9.018650084624946</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>332.5826460589975</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>26.99995778729098</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>66.17512620685334</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.2116514594134253</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>21.86696197154514</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>104.6354350586182</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>134.7426179953489</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>66.98836639312832</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>152.3458132526263</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>41.88171928086245</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>49.83655757064776</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>5.724741614375365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>101.2130831850526</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>36.8480622972813</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>127.6176159584065</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>57.38061110617255</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.9180588389339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452403</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>22.25888195253548</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>27.99983231733549</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2033.097625012799</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1659.631866751719</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1269.492534775907</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2294.708047044453</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C4" t="n">
-        <v>2125.771864116546</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>2476.356511874692</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
         <v>882.8926947117852</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2298.4556941933</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2298.4556941933</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1967.39280684973</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1614.624151579615</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1241.158393318536</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1241.158393318536</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397.6292392479589</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>618.4218183914891</v>
+        <v>719.019236646207</v>
       </c>
       <c r="S7" t="n">
-        <v>618.4218183914891</v>
+        <v>719.019236646207</v>
       </c>
       <c r="T7" t="n">
-        <v>618.4218183914891</v>
+        <v>719.019236646207</v>
       </c>
       <c r="U7" t="n">
-        <v>618.4218183914891</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="V7" t="n">
-        <v>618.4218183914891</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="W7" t="n">
-        <v>618.4218183914891</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X7" t="n">
-        <v>618.4218183914891</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>397.6292392479589</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1288.509552617345</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>1288.509552617345</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1288.509552617345</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1288.509552617345</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681467</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
-        <v>1675.109392681467</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.1154545468206</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C10" t="n">
-        <v>257.1154545468206</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>257.1154545468206</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>257.1154545468206</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>257.1154545468206</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4989,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>257.1154545468206</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>257.1154545468206</v>
+        <v>698.4982757071133</v>
       </c>
       <c r="V10" t="n">
-        <v>257.1154545468206</v>
+        <v>698.4982757071133</v>
       </c>
       <c r="W10" t="n">
-        <v>257.1154545468206</v>
+        <v>698.4982757071133</v>
       </c>
       <c r="X10" t="n">
-        <v>257.1154545468206</v>
+        <v>470.508724809096</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.1154545468206</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,22 +5266,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5476,10 +5478,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822458</v>
@@ -5513,10 +5515,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>990.7828679390639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.770281663976</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>1393.223911912834</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>1172.431332769303</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>383.437385413378</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>233.3207460010423</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1320.176150561012</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1031.04751177457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>776.3630235686835</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>486.9458535317228</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>486.9458535317228</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5971,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6069,25 +6071,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1313.886294955175</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6221,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6233,22 +6235,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>289.9398668627086</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123425</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123425</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123425</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6397,37 +6399,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557898</v>
+        <v>1448.576313415834</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557898</v>
+        <v>1448.576313415834</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557898</v>
+        <v>1448.576313415834</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771457</v>
+        <v>1448.576313415834</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771457</v>
+        <v>1193.891825209947</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344958</v>
+        <v>1193.891825209947</v>
       </c>
       <c r="X28" t="n">
-        <v>692.3809108364785</v>
+        <v>965.9022743119297</v>
       </c>
       <c r="Y28" t="n">
-        <v>471.5883316929484</v>
+        <v>745.1096951683995</v>
       </c>
     </row>
     <row r="29">
@@ -6440,64 +6442,64 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155898</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851617</v>
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>4094.296631519491</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>3925.360448591584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>3775.243809179248</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>4606.170084808407</v>
       </c>
       <c r="W31" t="n">
-        <v>898.5039869983195</v>
+        <v>4606.170084808407</v>
       </c>
       <c r="X31" t="n">
-        <v>892.7214197110717</v>
+        <v>4378.180533910389</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>4275.94509634973</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>579.3570368996739</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6859,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>981.7980808734437</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>761.0055017299136</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6916,58 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>545.1765965867977</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C37" t="n">
-        <v>376.2404136588908</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D37" t="n">
-        <v>226.1237742465551</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7123,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>928.0420033224083</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>928.0420033224083</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>928.0420033224083</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.8250614170374</v>
+        <v>707.2494241788781</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.21084526296</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>847.2212943649431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>687.7081036185452</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,10 +7402,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7412,28 +7414,28 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916369</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>231.2354019823136</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>231.2354019823136</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>231.2354019823136</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
@@ -7634,64 +7636,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>854.4182661194303</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>685.4820831915234</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>535.3654437791877</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>387.4523501967946</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>387.4523501967946</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>223.6742649934479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,13 +11074,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4091825776735</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3400780863231</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>124.567000675024</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>52.39982339880519</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>121.0742203304189</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>11.69134465122031</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>154.5591946652609</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>14.14775521075126</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>14.74113413690324</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.3651018177654</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>60.12779483314505</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,13 +24657,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24895,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>219.9849137746618</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>117.3715701670422</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>130.3987588013465</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25129,13 +25131,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>18.81634668816265</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>194.7570322176554</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.6665945131609</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368832</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>126.6549464150006</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>138.4937361460421</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862099.2923323689</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="16">
@@ -26320,40 +26322,40 @@
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459072</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.48295464189141e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338369</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,7 +26429,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26442,22 +26444,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26481,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060871</v>
+        <v>-284256.630406087</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084572</v>
+        <v>305711.2488084571</v>
       </c>
       <c r="D6" t="n">
         <v>305711.2488084571</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.7393665761</v>
+        <v>-111432.7393665766</v>
       </c>
       <c r="F6" t="n">
+        <v>413727.2971103196</v>
+      </c>
+      <c r="G6" t="n">
+        <v>413727.2971103196</v>
+      </c>
+      <c r="H6" t="n">
+        <v>413727.2971103198</v>
+      </c>
+      <c r="I6" t="n">
         <v>413727.2971103195</v>
       </c>
-      <c r="G6" t="n">
-        <v>413727.2971103197</v>
-      </c>
-      <c r="H6" t="n">
-        <v>413727.2971103197</v>
-      </c>
-      <c r="I6" t="n">
-        <v>413727.2971103197</v>
-      </c>
       <c r="J6" t="n">
-        <v>237304.0779177267</v>
+        <v>237304.0779177266</v>
       </c>
       <c r="K6" t="n">
-        <v>413727.2971103196</v>
+        <v>413727.2971103193</v>
       </c>
       <c r="L6" t="n">
-        <v>413727.2971103195</v>
+        <v>413727.2971103198</v>
       </c>
       <c r="M6" t="n">
-        <v>278926.2818764827</v>
+        <v>278926.2818764828</v>
       </c>
       <c r="N6" t="n">
         <v>413727.2971103195</v>
@@ -26561,7 +26563,7 @@
         <v>413727.2971103198</v>
       </c>
       <c r="P6" t="n">
-        <v>413727.2971103197</v>
+        <v>413727.2971103198</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>281.0973027094246</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.58227584217843</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>122.3285460967422</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>73.76038744430548</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>50.63597288476811</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>38.05509782336217</v>
+        <v>137.6465418955329</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>74.29339968271393</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>189.4483625703668</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>101.1346760521976</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.0702227825643</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35252,7 +35254,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>374.2497035813871</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36597,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515205985</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>570.7728848187817</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>331.4334930178478</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2133618.463005471</v>
+        <v>2126601.44811376</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>100.8330673628372</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>304.5338154975313</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>33.84234274505293</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>28.44734925172066</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.9734542191751</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.33571678054073</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>9.018650084624946</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>148.827124477626</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>26.99995778729098</v>
+        <v>132.5172612375151</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586834</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2116514594134253</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>253.1488561805826</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>21.86696197154514</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.38210601524952</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.5645290049876</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>134.7426179953489</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>152.3458132526263</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>40.31285845810835</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>49.83655757064776</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.2130831850526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>36.8480622972813</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>137.4124440129376</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>57.38061110617255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>22.25888195253548</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.99983231733549</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1138.210253911481</v>
+        <v>1667.156396867425</v>
       </c>
       <c r="C2" t="n">
-        <v>1138.210253911481</v>
+        <v>1298.193879927013</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.210253911481</v>
+        <v>939.9281813202624</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>939.9281813202624</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>528.9422765306549</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>515.0188724692458</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1138.210253911481</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.0633493392339</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>88.12716641132701</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>88.12716641132701</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>88.12716641132701</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>88.12716641132701</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>820.5275326359244</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>409.5416278463169</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>395.6182237849078</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>68.42350382091064</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4606,13 +4606,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>719.019236646207</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>719.019236646207</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>719.019236646207</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>429.8456263007749</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>429.8456263007749</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>429.8456263007749</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2438.670229229258</v>
+        <v>2563.293271586389</v>
       </c>
       <c r="U8" t="n">
-        <v>2438.670229229258</v>
+        <v>2309.53148622448</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.607341885688</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="W8" t="n">
-        <v>2107.607341885688</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X8" t="n">
-        <v>2107.607341885688</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>698.4982757071133</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>698.4982757071133</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>698.4982757071133</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>470.508724809096</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,16 +5108,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5269,16 +5269,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659885</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>334.3919945291553</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>334.3919945291553</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>334.3919945291553</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>187.502047031245</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.770281663976</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1240.850271579528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1017.064856369034</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1017.064856369034</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,28 +5740,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5773,10 +5773,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>552.3735683412849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>233.3207460010423</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>954.8146123150548</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4230.423978142506</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>4061.487795214599</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3911.371155802263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>4860.854573014292</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>4632.865022116275</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4412.072442972745</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.4612303381598</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="C28" t="n">
-        <v>394.5250474102529</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>137.9371505088801</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1448.576313415834</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1448.576313415834</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1448.576313415834</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1448.576313415834</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>1193.891825209947</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.891825209947</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X28" t="n">
-        <v>965.9022743119297</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.1096951683995</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4094.296631519491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3925.360448591584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014293</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4606.170084808407</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4606.170084808407</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4378.180533910389</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4275.94509634973</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.3570368996739</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>981.7980808734437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.0055017299136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,73 +6913,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>525.6009593486384</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="C37" t="n">
-        <v>356.6647764207315</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V37" t="n">
-        <v>928.0420033224083</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W37" t="n">
-        <v>928.0420033224083</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X37" t="n">
-        <v>928.0420033224083</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y37" t="n">
-        <v>707.2494241788781</v>
+        <v>554.6108700904388</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7359,19 +7359,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>379.1484955647068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>379.1484955647068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>379.1484955647068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>231.2354019823136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>231.2354019823136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>231.2354019823136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>781.5895395384766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>560.7969603949465</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>854.4182661194303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>685.4820831915234</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3654437791877</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>387.4523501967946</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>387.4523501967946</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.21084526296</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.21084526296</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>1075.21084526296</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>854.4182661194303</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415605</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>33.08849621799479</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>124.567000675024</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>77.11146244812807</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>52.39982339880519</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>11.69134465122031</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>14.14775521075126</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,16 +24417,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>108.6009699094278</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>60.12779483314505</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.3715701670422</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>130.3987588013465</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>11.20302900527471</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>194.7570322176554</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>126.6549464150006</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4937361460421</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
       </c>
       <c r="M2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="O2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>2.48295464189141e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338369</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26444,10 +26444,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26456,7 +26456,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-284256.630406087</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084571</v>
+        <v>305711.2488084574</v>
       </c>
       <c r="D6" t="n">
-        <v>305711.2488084571</v>
+        <v>305711.2488084572</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.7393665766</v>
+        <v>-112407.3306262984</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103196</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="G6" t="n">
-        <v>413727.2971103196</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103198</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505978</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.0779177266</v>
+        <v>236329.4866580051</v>
       </c>
       <c r="K6" t="n">
-        <v>413727.2971103193</v>
+        <v>412752.705850598</v>
       </c>
       <c r="L6" t="n">
-        <v>413727.2971103198</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="M6" t="n">
-        <v>278926.2818764828</v>
+        <v>277951.6906167609</v>
       </c>
       <c r="N6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="O6" t="n">
-        <v>413727.2971103198</v>
+        <v>412752.7058505978</v>
       </c>
       <c r="P6" t="n">
-        <v>413727.2971103198</v>
+        <v>412752.7058505978</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,7 +26752,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>281.0973027094246</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>19.38895726682586</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>122.3285460967422</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>118.2178427284372</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.76038744430548</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>137.5955994643205</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>137.6465418955329</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>137.695873858965</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>189.4483625703668</v>
+        <v>83.93105912014272</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.105142606069</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0702227825643</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31524,7 +31524,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,7 +31536,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126601.44811376</v>
+        <v>2131540.710962792</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>344.4300511872281</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>304.5338154975313</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.44734925172066</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>61.61413745349994</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.33571678054073</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>131.8487707252252</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>163.0793702451209</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>148.827124477626</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>132.5172612375151</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586834</v>
+        <v>159.9479264102629</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>92.39041249234444</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>253.1488561805826</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>76.77273444942645</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>10.8085950301004</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.38210601524952</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>260.2611488062148</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.31285845810835</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972308</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>95.02525064968191</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>137.4124440129376</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847143</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1667.156396867425</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1298.193879927013</v>
+        <v>903.3817252132462</v>
       </c>
       <c r="D2" t="n">
-        <v>939.9281813202624</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>939.9281813202624</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>528.9422765306549</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>515.0188724692458</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1667.156396867425</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>699.3942879925752</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>699.3942879925752</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="T4" t="n">
-        <v>699.3942879925752</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U4" t="n">
-        <v>699.3942879925752</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V4" t="n">
-        <v>699.3942879925752</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W4" t="n">
-        <v>699.3942879925752</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X4" t="n">
-        <v>699.3942879925752</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.3942879925752</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1933.544000781331</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>1564.581483840919</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1206.315785234169</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>820.5275326359244</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>409.5416278463169</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>395.6182237849078</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>68.42350382091064</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
         <v>99.5995062532301</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2563.293271586389</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2309.53148622448</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1978.468598880909</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.424940013486</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>764.7404518075996</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>475.3232817706389</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>954.8146123150548</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081043</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081043</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081043</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081043</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081043</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>325.1833165279248</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>174.7653080758681</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="17">
@@ -5494,52 +5494,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.3281774570622</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C19" t="n">
-        <v>334.3919945291553</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>334.3919945291553</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>334.3919945291553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>187.502047031245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550796</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570622</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.3281774570622</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028587</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,46 +6211,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>137.9371505088801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471244</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520947</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>554.6108700904388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>554.6108700904388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>844.0280401273993</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>554.6108700904388</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>554.6108700904388</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>554.6108700904388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,25 +7177,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,28 +7350,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X46" t="n">
         <v>318.0096706038159</v>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415605</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>87.44156768959286</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>33.08849621799479</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>33.64651101484554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.4382260685274</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>77.11146244812807</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>26.2618495303762</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>108.6009699094278</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>130.6844047393602</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>130.6844047393552</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>11.20302900527471</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.2923323693</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="G2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="H2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="K2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="N2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687072</v>
@@ -26444,22 +26444,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.630406087</v>
+        <v>-284256.6304060873</v>
       </c>
       <c r="C6" t="n">
         <v>305711.2488084574</v>
       </c>
       <c r="D6" t="n">
-        <v>305711.2488084572</v>
+        <v>305711.248808457</v>
       </c>
       <c r="E6" t="n">
-        <v>-112407.3306262984</v>
+        <v>-111530.1984925483</v>
       </c>
       <c r="F6" t="n">
-        <v>412752.7058505981</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="G6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843476</v>
       </c>
       <c r="H6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="I6" t="n">
-        <v>412752.7058505978</v>
+        <v>413629.8379843472</v>
       </c>
       <c r="J6" t="n">
-        <v>236329.4866580051</v>
+        <v>237206.6187917543</v>
       </c>
       <c r="K6" t="n">
-        <v>412752.705850598</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="L6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="M6" t="n">
-        <v>277951.6906167609</v>
+        <v>278828.8227505104</v>
       </c>
       <c r="N6" t="n">
-        <v>412752.7058505981</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="O6" t="n">
-        <v>412752.7058505978</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="P6" t="n">
-        <v>412752.7058505978</v>
+        <v>413629.8379843477</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10.2529904334549</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>19.38895726682586</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>118.2178427284372</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>150.531401496519</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>137.5955994643205</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>42.56694208374634</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>16.75260993681636</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>137.695873858965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858212</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>83.93105912014272</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.105142606069</v>
+        <v>19.88405377167439</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.104943754957264e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775188</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789776</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
